--- a/Finflux Automation Excels/Client/4939-Minimum-Days-Between-Disbursal-And-First-Repayment-Date-MakeRepayment.xlsx
+++ b/Finflux Automation Excels/Client/4939-Minimum-Days-Between-Disbursal-And-First-Repayment-Date-MakeRepayment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>clickonmakerepayment</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Disbursement</t>
+  </si>
+  <si>
+    <t>ReceiptNumber</t>
   </si>
 </sst>
 </file>
@@ -494,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,9 +535,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -545,10 +556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,9 +594,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -596,10 +615,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,9 +653,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
